--- a/red_bayesiana.xlsx
+++ b/red_bayesiana.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEFA8EE-7B1F-444F-A106-C7F938807A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0976D69-F740-4D44-9947-9AFDBDE7AF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="3" xr2:uid="{2DCC9824-7155-4BF7-9C3D-8C87AC54603B}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{2DCC9824-7155-4BF7-9C3D-8C87AC54603B}"/>
   </bookViews>
   <sheets>
     <sheet name="rain" sheetId="1" r:id="rId1"/>
     <sheet name="maintenance" sheetId="2" r:id="rId2"/>
     <sheet name="train" sheetId="3" r:id="rId3"/>
     <sheet name="appointment" sheetId="4" r:id="rId4"/>
+    <sheet name="edges" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>none</t>
   </si>
@@ -66,6 +67,24 @@
   </si>
   <si>
     <t>miss</t>
+  </si>
+  <si>
+    <t>nodo_a</t>
+  </si>
+  <si>
+    <t>nodo_b</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>appointment</t>
   </si>
 </sst>
 </file>
@@ -594,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1340ED2D-E0E8-4C8A-98C1-25B3F498E5AD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -627,4 +646,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B32FDB9-037D-4CC4-A3CC-C4BBE8620426}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>